--- a/inputData.xlsx
+++ b/inputData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\com.keyworddrivenproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB3F8A-1749-4C0A-AB6E-427B0C4582F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EEAA90-1700-48DD-B850-3D9A70F8721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
@@ -94,16 +94,23 @@
     <t>//button[normalize-space()='Log in']</t>
   </si>
   <si>
-    <t>//p[contains(text(),'Username and password do not match or you do not h')]</t>
+    <t>//p[contains(text(),'Username and password do not match or you do not have an account yet.')]</t>
   </si>
   <si>
     <t>Username and password do not match or you do not have an account yet.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +247,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +293,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,17 +647,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="3" width="16.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -727,7 +746,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -748,26 +767,28 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:7" s="21" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
